--- a/tagsheet_to_tidbits2025/data/TidEncEx.xlsx
+++ b/tagsheet_to_tidbits2025/data/TidEncEx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f03cf4e0d6e7cfb9/Desktop/Code/Sturgeon_TidBits/tagsheet_to_tidbits2025/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umainesystem-my.sharepoint.com/personal/sander_elliott_maine_edu/Documents/Desktop/Github/Sturgeon_TidBits/tagsheet_to_tidbits2025/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4799FC4D-1C54-427D-B590-01D68AF0BE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4799FC4D-1C54-427D-B590-01D68AF0BE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{931A6972-E32B-42E5-83E0-99B9940D83E8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29070" yWindow="0" windowWidth="28530" windowHeight="15480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial Capture" sheetId="7" r:id="rId1"/>
@@ -2459,7 +2459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2612,11 +2612,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -2962,54 +2957,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9F54DC-EBEB-4696-969D-5912A641919D}">
   <dimension ref="A1:AR203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.453125" style="70" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" style="70" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="18.26953125" customWidth="1"/>
-    <col min="24" max="24" width="19.26953125" customWidth="1"/>
-    <col min="25" max="26" width="22.1796875" customWidth="1"/>
-    <col min="27" max="27" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.453125" customWidth="1"/>
-    <col min="29" max="29" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="18.28515625" customWidth="1"/>
+    <col min="24" max="24" width="19.28515625" customWidth="1"/>
+    <col min="25" max="26" width="22.140625" customWidth="1"/>
+    <col min="27" max="27" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" customWidth="1"/>
+    <col min="29" max="29" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.1796875" customWidth="1"/>
-    <col min="32" max="32" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.453125" customWidth="1"/>
-    <col min="34" max="34" width="7.7265625" customWidth="1"/>
+    <col min="31" max="31" width="18.140625" customWidth="1"/>
+    <col min="32" max="32" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.42578125" customWidth="1"/>
+    <col min="34" max="34" width="7.7109375" customWidth="1"/>
     <col min="35" max="35" width="6" customWidth="1"/>
-    <col min="36" max="36" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="16" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.453125" customWidth="1"/>
-    <col min="40" max="40" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.42578125" customWidth="1"/>
+    <col min="40" max="40" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="23" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="17.1796875" customWidth="1"/>
-    <col min="44" max="44" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.140625" customWidth="1"/>
+    <col min="44" max="44" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="15" thickBot="1">
+    <row r="1" spans="1:44" ht="15.75" thickBot="1">
       <c r="A1" s="52" t="s">
         <v>262</v>
       </c>
@@ -4288,7 +4283,7 @@
       <c r="F14" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="G14" s="99">
+      <c r="G14" s="96">
         <v>45797</v>
       </c>
       <c r="H14" s="7" t="s">
@@ -4312,7 +4307,7 @@
       <c r="N14" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="O14" s="99">
+      <c r="O14" s="96">
         <v>45797</v>
       </c>
       <c r="P14" s="7" t="s">
@@ -4333,7 +4328,7 @@
       <c r="U14" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="V14" s="100">
+      <c r="V14" s="97">
         <v>1639564</v>
       </c>
       <c r="W14" s="7">
@@ -9743,563 +9738,563 @@
         <v>320</v>
       </c>
     </row>
-    <row r="73" spans="1:44" s="96" customFormat="1">
-      <c r="A73" s="96" t="s">
+    <row r="73" spans="1:44">
+      <c r="A73" t="s">
         <v>266</v>
       </c>
-      <c r="B73" s="96" t="s">
+      <c r="B73" t="s">
         <v>7</v>
       </c>
-      <c r="C73" s="96" t="s">
+      <c r="C73" t="s">
         <v>144</v>
       </c>
-      <c r="D73" s="96" t="s">
+      <c r="D73" t="s">
         <v>149</v>
       </c>
-      <c r="E73" s="96" t="s">
+      <c r="E73" t="s">
         <v>103</v>
       </c>
-      <c r="F73" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="G73" s="97">
+      <c r="F73" t="s">
+        <v>182</v>
+      </c>
+      <c r="G73" s="93">
         <v>45808</v>
       </c>
-      <c r="H73" s="96" t="s">
-        <v>315</v>
-      </c>
-      <c r="I73" s="96">
-        <v>528006</v>
-      </c>
-      <c r="J73" s="96">
-        <v>4976602</v>
-      </c>
-      <c r="K73" s="96">
+      <c r="H73" t="s">
+        <v>315</v>
+      </c>
+      <c r="I73">
+        <v>528006</v>
+      </c>
+      <c r="J73">
+        <v>4976602</v>
+      </c>
+      <c r="K73">
         <v>19</v>
       </c>
-      <c r="L73" s="96" t="s">
+      <c r="L73" t="s">
         <v>207</v>
       </c>
-      <c r="M73" s="96" t="s">
+      <c r="M73" t="s">
         <v>204</v>
       </c>
-      <c r="N73" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="O73" s="97">
+      <c r="N73" t="s">
+        <v>182</v>
+      </c>
+      <c r="O73" s="93">
         <v>45808</v>
       </c>
-      <c r="P73" s="96" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q73" s="96">
-        <v>528006</v>
-      </c>
-      <c r="R73" s="96">
-        <v>4976602</v>
-      </c>
-      <c r="S73" s="96" t="s">
+      <c r="P73" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q73">
+        <v>528006</v>
+      </c>
+      <c r="R73">
+        <v>4976602</v>
+      </c>
+      <c r="S73" t="s">
         <v>82</v>
       </c>
-      <c r="T73" s="96" t="s">
+      <c r="T73" t="s">
         <v>316</v>
       </c>
-      <c r="U73" s="96" t="s">
+      <c r="U73" t="s">
         <v>317</v>
       </c>
-      <c r="V73" s="98" t="s">
+      <c r="V73" s="94" t="s">
         <v>435</v>
       </c>
-      <c r="W73" s="96">
+      <c r="W73">
         <v>848</v>
       </c>
-      <c r="AC73" s="96">
+      <c r="AC73">
         <v>43</v>
       </c>
-      <c r="AD73" s="96">
+      <c r="AD73">
         <v>152.01</v>
       </c>
-      <c r="AE73" s="96">
+      <c r="AE73">
         <v>3</v>
       </c>
-      <c r="AG73" s="96" t="s">
+      <c r="AG73" t="s">
         <v>169</v>
       </c>
-      <c r="AH73" s="96" t="s">
+      <c r="AH73" t="s">
         <v>310</v>
       </c>
-      <c r="AI73" s="96" t="s">
+      <c r="AI73" t="s">
         <v>169</v>
       </c>
-      <c r="AJ73" s="96">
+      <c r="AJ73">
         <v>75</v>
       </c>
-      <c r="AM73" s="96" t="s">
+      <c r="AM73" t="s">
         <v>221</v>
       </c>
-      <c r="AQ73" s="96" t="s">
+      <c r="AQ73" t="s">
         <v>436</v>
       </c>
-      <c r="AR73" s="96" t="s">
+      <c r="AR73" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="74" spans="1:44" s="96" customFormat="1">
-      <c r="A74" s="96" t="s">
+    <row r="74" spans="1:44">
+      <c r="A74" t="s">
         <v>266</v>
       </c>
-      <c r="B74" s="96" t="s">
+      <c r="B74" t="s">
         <v>7</v>
       </c>
-      <c r="C74" s="96" t="s">
+      <c r="C74" t="s">
         <v>144</v>
       </c>
-      <c r="D74" s="96" t="s">
+      <c r="D74" t="s">
         <v>149</v>
       </c>
-      <c r="E74" s="96" t="s">
+      <c r="E74" t="s">
         <v>103</v>
       </c>
-      <c r="F74" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="G74" s="97">
+      <c r="F74" t="s">
+        <v>182</v>
+      </c>
+      <c r="G74" s="93">
         <v>45808</v>
       </c>
-      <c r="H74" s="96" t="s">
-        <v>315</v>
-      </c>
-      <c r="I74" s="96">
-        <v>528006</v>
-      </c>
-      <c r="J74" s="96">
-        <v>4976602</v>
-      </c>
-      <c r="K74" s="96">
+      <c r="H74" t="s">
+        <v>315</v>
+      </c>
+      <c r="I74">
+        <v>528006</v>
+      </c>
+      <c r="J74">
+        <v>4976602</v>
+      </c>
+      <c r="K74">
         <v>19</v>
       </c>
-      <c r="L74" s="96" t="s">
+      <c r="L74" t="s">
         <v>207</v>
       </c>
-      <c r="M74" s="96" t="s">
+      <c r="M74" t="s">
         <v>204</v>
       </c>
-      <c r="N74" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="O74" s="97">
+      <c r="N74" t="s">
+        <v>182</v>
+      </c>
+      <c r="O74" s="93">
         <v>45808</v>
       </c>
-      <c r="P74" s="96" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q74" s="96">
-        <v>528006</v>
-      </c>
-      <c r="R74" s="96">
-        <v>4976602</v>
-      </c>
-      <c r="S74" s="96" t="s">
+      <c r="P74" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q74">
+        <v>528006</v>
+      </c>
+      <c r="R74">
+        <v>4976602</v>
+      </c>
+      <c r="S74" t="s">
         <v>81</v>
       </c>
-      <c r="T74" s="96" t="s">
+      <c r="T74" t="s">
         <v>321</v>
       </c>
-      <c r="U74" s="96" t="s">
+      <c r="U74" t="s">
         <v>322</v>
       </c>
-      <c r="V74" s="98">
+      <c r="V74" s="94">
         <v>1601701</v>
       </c>
-      <c r="W74" s="96">
+      <c r="W74">
         <v>344</v>
       </c>
-      <c r="X74" s="96" t="s">
+      <c r="X74" t="s">
         <v>437</v>
       </c>
-      <c r="AG74" s="96" t="s">
+      <c r="AG74" t="s">
         <v>169</v>
       </c>
-      <c r="AH74" s="96" t="s">
+      <c r="AH74" t="s">
         <v>310</v>
       </c>
-      <c r="AI74" s="96" t="s">
+      <c r="AI74" t="s">
         <v>169</v>
       </c>
-      <c r="AJ74" s="96">
+      <c r="AJ74">
         <v>75</v>
       </c>
-      <c r="AM74" s="96" t="s">
+      <c r="AM74" t="s">
         <v>221</v>
       </c>
-      <c r="AQ74" s="96" t="s">
+      <c r="AQ74" t="s">
         <v>436</v>
       </c>
-      <c r="AR74" s="96" t="s">
+      <c r="AR74" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="75" spans="1:44" s="96" customFormat="1">
-      <c r="A75" s="96" t="s">
+    <row r="75" spans="1:44">
+      <c r="A75" t="s">
         <v>266</v>
       </c>
-      <c r="B75" s="96" t="s">
+      <c r="B75" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="96" t="s">
+      <c r="C75" t="s">
         <v>144</v>
       </c>
-      <c r="D75" s="96" t="s">
+      <c r="D75" t="s">
         <v>149</v>
       </c>
-      <c r="E75" s="96" t="s">
+      <c r="E75" t="s">
         <v>103</v>
       </c>
-      <c r="F75" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="G75" s="97">
+      <c r="F75" t="s">
+        <v>182</v>
+      </c>
+      <c r="G75" s="93">
         <v>45808</v>
       </c>
-      <c r="H75" s="96" t="s">
-        <v>315</v>
-      </c>
-      <c r="I75" s="96">
-        <v>528006</v>
-      </c>
-      <c r="J75" s="96">
-        <v>4976602</v>
-      </c>
-      <c r="K75" s="96">
+      <c r="H75" t="s">
+        <v>315</v>
+      </c>
+      <c r="I75">
+        <v>528006</v>
+      </c>
+      <c r="J75">
+        <v>4976602</v>
+      </c>
+      <c r="K75">
         <v>19</v>
       </c>
-      <c r="L75" s="96" t="s">
+      <c r="L75" t="s">
         <v>207</v>
       </c>
-      <c r="M75" s="96" t="s">
+      <c r="M75" t="s">
         <v>204</v>
       </c>
-      <c r="N75" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="O75" s="97">
+      <c r="N75" t="s">
+        <v>182</v>
+      </c>
+      <c r="O75" s="93">
         <v>45808</v>
       </c>
-      <c r="P75" s="96" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q75" s="96">
-        <v>528006</v>
-      </c>
-      <c r="R75" s="96">
-        <v>4976602</v>
-      </c>
-      <c r="S75" s="96" t="s">
+      <c r="P75" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q75">
+        <v>528006</v>
+      </c>
+      <c r="R75">
+        <v>4976602</v>
+      </c>
+      <c r="S75" t="s">
         <v>4</v>
       </c>
-      <c r="V75" s="98"/>
-      <c r="AB75" s="96" t="s">
+      <c r="V75" s="94"/>
+      <c r="AB75" t="s">
         <v>609</v>
       </c>
-      <c r="AG75" s="96" t="s">
+      <c r="AG75" t="s">
         <v>169</v>
       </c>
-      <c r="AH75" s="96" t="s">
+      <c r="AH75" t="s">
         <v>310</v>
       </c>
-      <c r="AI75" s="96" t="s">
+      <c r="AI75" t="s">
         <v>169</v>
       </c>
-      <c r="AJ75" s="96">
+      <c r="AJ75">
         <v>75</v>
       </c>
-      <c r="AM75" s="96" t="s">
+      <c r="AM75" t="s">
         <v>221</v>
       </c>
-      <c r="AQ75" s="96" t="s">
+      <c r="AQ75" t="s">
         <v>436</v>
       </c>
-      <c r="AR75" s="96" t="s">
+      <c r="AR75" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="76" spans="1:44" s="96" customFormat="1">
-      <c r="A76" s="96" t="s">
+    <row r="76" spans="1:44">
+      <c r="A76" t="s">
         <v>266</v>
       </c>
-      <c r="B76" s="96" t="s">
+      <c r="B76" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="96" t="s">
+      <c r="C76" t="s">
         <v>144</v>
       </c>
-      <c r="D76" s="96" t="s">
+      <c r="D76" t="s">
         <v>149</v>
       </c>
-      <c r="E76" s="96" t="s">
+      <c r="E76" t="s">
         <v>103</v>
       </c>
-      <c r="F76" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="G76" s="97">
+      <c r="F76" t="s">
+        <v>182</v>
+      </c>
+      <c r="G76" s="93">
         <v>45808</v>
       </c>
-      <c r="H76" s="96" t="s">
-        <v>315</v>
-      </c>
-      <c r="I76" s="96">
-        <v>528006</v>
-      </c>
-      <c r="J76" s="96">
-        <v>4976602</v>
-      </c>
-      <c r="K76" s="96">
+      <c r="H76" t="s">
+        <v>315</v>
+      </c>
+      <c r="I76">
+        <v>528006</v>
+      </c>
+      <c r="J76">
+        <v>4976602</v>
+      </c>
+      <c r="K76">
         <v>19</v>
       </c>
-      <c r="L76" s="96" t="s">
+      <c r="L76" t="s">
         <v>207</v>
       </c>
-      <c r="M76" s="96" t="s">
+      <c r="M76" t="s">
         <v>204</v>
       </c>
-      <c r="N76" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="O76" s="97">
+      <c r="N76" t="s">
+        <v>182</v>
+      </c>
+      <c r="O76" s="93">
         <v>45808</v>
       </c>
-      <c r="P76" s="96" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q76" s="96">
-        <v>528006</v>
-      </c>
-      <c r="R76" s="96">
-        <v>4976602</v>
-      </c>
-      <c r="S76" s="96" t="s">
+      <c r="P76" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q76">
+        <v>528006</v>
+      </c>
+      <c r="R76">
+        <v>4976602</v>
+      </c>
+      <c r="S76" t="s">
         <v>82</v>
       </c>
-      <c r="T76" s="96" t="s">
+      <c r="T76" t="s">
         <v>316</v>
       </c>
-      <c r="U76" s="96" t="s">
+      <c r="U76" t="s">
         <v>317</v>
       </c>
-      <c r="V76" s="98" t="s">
+      <c r="V76" s="94" t="s">
         <v>439</v>
       </c>
-      <c r="W76" s="96">
+      <c r="W76">
         <v>848</v>
       </c>
-      <c r="AC76" s="96">
+      <c r="AC76">
         <v>48</v>
       </c>
-      <c r="AD76" s="96">
+      <c r="AD76">
         <v>152.01</v>
       </c>
-      <c r="AE76" s="96">
+      <c r="AE76">
         <v>3</v>
       </c>
-      <c r="AG76" s="96" t="s">
+      <c r="AG76" t="s">
         <v>169</v>
       </c>
-      <c r="AH76" s="96" t="s">
+      <c r="AH76" t="s">
         <v>310</v>
       </c>
-      <c r="AI76" s="96" t="s">
+      <c r="AI76" t="s">
         <v>169</v>
       </c>
-      <c r="AJ76" s="96">
+      <c r="AJ76">
         <v>70</v>
       </c>
-      <c r="AM76" s="96" t="s">
+      <c r="AM76" t="s">
         <v>221</v>
       </c>
-      <c r="AQ76" s="96" t="s">
+      <c r="AQ76" t="s">
         <v>440</v>
       </c>
-      <c r="AR76" s="96" t="s">
+      <c r="AR76" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="77" spans="1:44" s="96" customFormat="1">
-      <c r="A77" s="96" t="s">
+    <row r="77" spans="1:44">
+      <c r="A77" t="s">
         <v>266</v>
       </c>
-      <c r="B77" s="96" t="s">
+      <c r="B77" t="s">
         <v>7</v>
       </c>
-      <c r="C77" s="96" t="s">
+      <c r="C77" t="s">
         <v>144</v>
       </c>
-      <c r="D77" s="96" t="s">
+      <c r="D77" t="s">
         <v>149</v>
       </c>
-      <c r="E77" s="96" t="s">
+      <c r="E77" t="s">
         <v>103</v>
       </c>
-      <c r="F77" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="G77" s="97">
+      <c r="F77" t="s">
+        <v>182</v>
+      </c>
+      <c r="G77" s="93">
         <v>45808</v>
       </c>
-      <c r="H77" s="96" t="s">
-        <v>315</v>
-      </c>
-      <c r="I77" s="96">
-        <v>528006</v>
-      </c>
-      <c r="J77" s="96">
-        <v>4976602</v>
-      </c>
-      <c r="K77" s="96">
+      <c r="H77" t="s">
+        <v>315</v>
+      </c>
+      <c r="I77">
+        <v>528006</v>
+      </c>
+      <c r="J77">
+        <v>4976602</v>
+      </c>
+      <c r="K77">
         <v>19</v>
       </c>
-      <c r="L77" s="96" t="s">
+      <c r="L77" t="s">
         <v>207</v>
       </c>
-      <c r="M77" s="96" t="s">
+      <c r="M77" t="s">
         <v>204</v>
       </c>
-      <c r="N77" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="O77" s="97">
+      <c r="N77" t="s">
+        <v>182</v>
+      </c>
+      <c r="O77" s="93">
         <v>45808</v>
       </c>
-      <c r="P77" s="96" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q77" s="96">
-        <v>528006</v>
-      </c>
-      <c r="R77" s="96">
-        <v>4976602</v>
-      </c>
-      <c r="S77" s="96" t="s">
+      <c r="P77" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q77">
+        <v>528006</v>
+      </c>
+      <c r="R77">
+        <v>4976602</v>
+      </c>
+      <c r="S77" t="s">
         <v>81</v>
       </c>
-      <c r="T77" s="96" t="s">
+      <c r="T77" t="s">
         <v>321</v>
       </c>
-      <c r="U77" s="96" t="s">
+      <c r="U77" t="s">
         <v>322</v>
       </c>
-      <c r="V77" s="98">
+      <c r="V77" s="94">
         <v>1601667</v>
       </c>
-      <c r="W77" s="96">
+      <c r="W77">
         <v>344</v>
       </c>
-      <c r="X77" s="96" t="s">
+      <c r="X77" t="s">
         <v>441</v>
       </c>
-      <c r="AG77" s="96" t="s">
+      <c r="AG77" t="s">
         <v>169</v>
       </c>
-      <c r="AH77" s="96" t="s">
+      <c r="AH77" t="s">
         <v>310</v>
       </c>
-      <c r="AI77" s="96" t="s">
+      <c r="AI77" t="s">
         <v>169</v>
       </c>
-      <c r="AJ77" s="96">
+      <c r="AJ77">
         <v>70</v>
       </c>
-      <c r="AM77" s="96" t="s">
+      <c r="AM77" t="s">
         <v>221</v>
       </c>
-      <c r="AQ77" s="96" t="s">
+      <c r="AQ77" t="s">
         <v>440</v>
       </c>
-      <c r="AR77" s="96" t="s">
+      <c r="AR77" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="78" spans="1:44" s="96" customFormat="1">
-      <c r="A78" s="96" t="s">
+    <row r="78" spans="1:44">
+      <c r="A78" t="s">
         <v>266</v>
       </c>
-      <c r="B78" s="96" t="s">
+      <c r="B78" t="s">
         <v>7</v>
       </c>
-      <c r="C78" s="96" t="s">
+      <c r="C78" t="s">
         <v>144</v>
       </c>
-      <c r="D78" s="96" t="s">
+      <c r="D78" t="s">
         <v>149</v>
       </c>
-      <c r="E78" s="96" t="s">
+      <c r="E78" t="s">
         <v>103</v>
       </c>
-      <c r="F78" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="G78" s="97">
+      <c r="F78" t="s">
+        <v>182</v>
+      </c>
+      <c r="G78" s="93">
         <v>45808</v>
       </c>
-      <c r="H78" s="96" t="s">
-        <v>315</v>
-      </c>
-      <c r="I78" s="96">
-        <v>528006</v>
-      </c>
-      <c r="J78" s="96">
-        <v>4976602</v>
-      </c>
-      <c r="K78" s="96">
+      <c r="H78" t="s">
+        <v>315</v>
+      </c>
+      <c r="I78">
+        <v>528006</v>
+      </c>
+      <c r="J78">
+        <v>4976602</v>
+      </c>
+      <c r="K78">
         <v>19</v>
       </c>
-      <c r="L78" s="96" t="s">
+      <c r="L78" t="s">
         <v>207</v>
       </c>
-      <c r="M78" s="96" t="s">
+      <c r="M78" t="s">
         <v>204</v>
       </c>
-      <c r="N78" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="O78" s="97">
+      <c r="N78" t="s">
+        <v>182</v>
+      </c>
+      <c r="O78" s="93">
         <v>45808</v>
       </c>
-      <c r="P78" s="96" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q78" s="96">
-        <v>528006</v>
-      </c>
-      <c r="R78" s="96">
-        <v>4976602</v>
-      </c>
-      <c r="S78" s="96" t="s">
+      <c r="P78" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q78">
+        <v>528006</v>
+      </c>
+      <c r="R78">
+        <v>4976602</v>
+      </c>
+      <c r="S78" t="s">
         <v>4</v>
       </c>
-      <c r="V78" s="98"/>
-      <c r="AB78" s="96" t="s">
+      <c r="V78" s="94"/>
+      <c r="AB78" t="s">
         <v>438</v>
       </c>
-      <c r="AG78" s="96" t="s">
+      <c r="AG78" t="s">
         <v>169</v>
       </c>
-      <c r="AH78" s="96" t="s">
+      <c r="AH78" t="s">
         <v>310</v>
       </c>
-      <c r="AI78" s="96" t="s">
+      <c r="AI78" t="s">
         <v>169</v>
       </c>
-      <c r="AJ78" s="96">
+      <c r="AJ78">
         <v>70</v>
       </c>
-      <c r="AM78" s="96" t="s">
+      <c r="AM78" t="s">
         <v>221</v>
       </c>
-      <c r="AQ78" s="96" t="s">
+      <c r="AQ78" t="s">
         <v>440</v>
       </c>
-      <c r="AR78" s="96" t="s">
+      <c r="AR78" t="s">
         <v>320</v>
       </c>
     </row>
@@ -12448,563 +12443,563 @@
         <v>320</v>
       </c>
     </row>
-    <row r="102" spans="1:44" s="96" customFormat="1">
-      <c r="A102" s="96" t="s">
+    <row r="102" spans="1:44">
+      <c r="A102" t="s">
         <v>266</v>
       </c>
-      <c r="B102" s="96" t="s">
+      <c r="B102" t="s">
         <v>7</v>
       </c>
-      <c r="C102" s="96" t="s">
+      <c r="C102" t="s">
         <v>144</v>
       </c>
-      <c r="D102" s="96" t="s">
+      <c r="D102" t="s">
         <v>149</v>
       </c>
-      <c r="E102" s="96" t="s">
+      <c r="E102" t="s">
         <v>103</v>
       </c>
-      <c r="F102" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="G102" s="97">
+      <c r="F102" t="s">
+        <v>182</v>
+      </c>
+      <c r="G102" s="93">
         <v>45811</v>
       </c>
-      <c r="H102" s="96" t="s">
-        <v>315</v>
-      </c>
-      <c r="I102" s="96">
-        <v>528006</v>
-      </c>
-      <c r="J102" s="96">
-        <v>4976602</v>
-      </c>
-      <c r="K102" s="96">
+      <c r="H102" t="s">
+        <v>315</v>
+      </c>
+      <c r="I102">
+        <v>528006</v>
+      </c>
+      <c r="J102">
+        <v>4976602</v>
+      </c>
+      <c r="K102">
         <v>19</v>
       </c>
-      <c r="L102" s="96" t="s">
+      <c r="L102" t="s">
         <v>207</v>
       </c>
-      <c r="M102" s="96" t="s">
+      <c r="M102" t="s">
         <v>204</v>
       </c>
-      <c r="N102" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="O102" s="97">
+      <c r="N102" t="s">
+        <v>182</v>
+      </c>
+      <c r="O102" s="93">
         <v>45811</v>
       </c>
-      <c r="P102" s="96" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q102" s="96">
-        <v>528006</v>
-      </c>
-      <c r="R102" s="96">
-        <v>4976602</v>
-      </c>
-      <c r="S102" s="96" t="s">
+      <c r="P102" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q102">
+        <v>528006</v>
+      </c>
+      <c r="R102">
+        <v>4976602</v>
+      </c>
+      <c r="S102" t="s">
         <v>82</v>
       </c>
-      <c r="T102" s="96" t="s">
+      <c r="T102" t="s">
         <v>316</v>
       </c>
-      <c r="U102" s="96" t="s">
+      <c r="U102" t="s">
         <v>317</v>
       </c>
-      <c r="V102" s="98" t="s">
+      <c r="V102" s="94" t="s">
         <v>474</v>
       </c>
-      <c r="W102" s="96">
+      <c r="W102">
         <v>848</v>
       </c>
-      <c r="AC102" s="96">
+      <c r="AC102">
         <v>92</v>
       </c>
-      <c r="AD102" s="96">
+      <c r="AD102">
         <v>151.85</v>
       </c>
-      <c r="AE102" s="96">
+      <c r="AE102">
         <v>3</v>
       </c>
-      <c r="AG102" s="96" t="s">
+      <c r="AG102" t="s">
         <v>311</v>
       </c>
-      <c r="AH102" s="96" t="s">
+      <c r="AH102" t="s">
         <v>314</v>
       </c>
-      <c r="AI102" s="96" t="s">
+      <c r="AI102" t="s">
         <v>169</v>
       </c>
-      <c r="AJ102" s="96">
+      <c r="AJ102">
         <v>73</v>
       </c>
-      <c r="AM102" s="96" t="s">
+      <c r="AM102" t="s">
         <v>221</v>
       </c>
-      <c r="AQ102" s="96" t="s">
+      <c r="AQ102" t="s">
         <v>475</v>
       </c>
-      <c r="AR102" s="96" t="s">
+      <c r="AR102" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="103" spans="1:44" s="96" customFormat="1">
-      <c r="A103" s="96" t="s">
+    <row r="103" spans="1:44">
+      <c r="A103" t="s">
         <v>266</v>
       </c>
-      <c r="B103" s="96" t="s">
+      <c r="B103" t="s">
         <v>7</v>
       </c>
-      <c r="C103" s="96" t="s">
+      <c r="C103" t="s">
         <v>144</v>
       </c>
-      <c r="D103" s="96" t="s">
+      <c r="D103" t="s">
         <v>149</v>
       </c>
-      <c r="E103" s="96" t="s">
+      <c r="E103" t="s">
         <v>103</v>
       </c>
-      <c r="F103" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="G103" s="97">
+      <c r="F103" t="s">
+        <v>182</v>
+      </c>
+      <c r="G103" s="93">
         <v>45811</v>
       </c>
-      <c r="H103" s="96" t="s">
-        <v>315</v>
-      </c>
-      <c r="I103" s="96">
-        <v>528006</v>
-      </c>
-      <c r="J103" s="96">
-        <v>4976602</v>
-      </c>
-      <c r="K103" s="96">
+      <c r="H103" t="s">
+        <v>315</v>
+      </c>
+      <c r="I103">
+        <v>528006</v>
+      </c>
+      <c r="J103">
+        <v>4976602</v>
+      </c>
+      <c r="K103">
         <v>19</v>
       </c>
-      <c r="L103" s="96" t="s">
+      <c r="L103" t="s">
         <v>207</v>
       </c>
-      <c r="M103" s="96" t="s">
+      <c r="M103" t="s">
         <v>204</v>
       </c>
-      <c r="N103" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="O103" s="97">
+      <c r="N103" t="s">
+        <v>182</v>
+      </c>
+      <c r="O103" s="93">
         <v>45811</v>
       </c>
-      <c r="P103" s="96" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q103" s="96">
-        <v>528006</v>
-      </c>
-      <c r="R103" s="96">
-        <v>4976602</v>
-      </c>
-      <c r="S103" s="96" t="s">
+      <c r="P103" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q103">
+        <v>528006</v>
+      </c>
+      <c r="R103">
+        <v>4976602</v>
+      </c>
+      <c r="S103" t="s">
         <v>81</v>
       </c>
-      <c r="T103" s="96" t="s">
+      <c r="T103" t="s">
         <v>321</v>
       </c>
-      <c r="U103" s="96" t="s">
+      <c r="U103" t="s">
         <v>322</v>
       </c>
-      <c r="V103" s="98">
+      <c r="V103" s="94">
         <v>1639526</v>
       </c>
-      <c r="W103" s="96">
+      <c r="W103">
         <v>344</v>
       </c>
-      <c r="X103" s="96" t="s">
+      <c r="X103" t="s">
         <v>476</v>
       </c>
-      <c r="AG103" s="96" t="s">
+      <c r="AG103" t="s">
         <v>311</v>
       </c>
-      <c r="AH103" s="96" t="s">
+      <c r="AH103" t="s">
         <v>314</v>
       </c>
-      <c r="AI103" s="96" t="s">
+      <c r="AI103" t="s">
         <v>169</v>
       </c>
-      <c r="AJ103" s="96">
+      <c r="AJ103">
         <v>73</v>
       </c>
-      <c r="AM103" s="96" t="s">
+      <c r="AM103" t="s">
         <v>221</v>
       </c>
-      <c r="AQ103" s="96" t="s">
+      <c r="AQ103" t="s">
         <v>475</v>
       </c>
-      <c r="AR103" s="96" t="s">
+      <c r="AR103" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="104" spans="1:44" s="96" customFormat="1">
-      <c r="A104" s="96" t="s">
+    <row r="104" spans="1:44">
+      <c r="A104" t="s">
         <v>266</v>
       </c>
-      <c r="B104" s="96" t="s">
+      <c r="B104" t="s">
         <v>7</v>
       </c>
-      <c r="C104" s="96" t="s">
+      <c r="C104" t="s">
         <v>144</v>
       </c>
-      <c r="D104" s="96" t="s">
+      <c r="D104" t="s">
         <v>149</v>
       </c>
-      <c r="E104" s="96" t="s">
+      <c r="E104" t="s">
         <v>103</v>
       </c>
-      <c r="F104" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="G104" s="97">
+      <c r="F104" t="s">
+        <v>182</v>
+      </c>
+      <c r="G104" s="93">
         <v>45811</v>
       </c>
-      <c r="H104" s="96" t="s">
-        <v>315</v>
-      </c>
-      <c r="I104" s="96">
-        <v>528006</v>
-      </c>
-      <c r="J104" s="96">
-        <v>4976602</v>
-      </c>
-      <c r="K104" s="96">
+      <c r="H104" t="s">
+        <v>315</v>
+      </c>
+      <c r="I104">
+        <v>528006</v>
+      </c>
+      <c r="J104">
+        <v>4976602</v>
+      </c>
+      <c r="K104">
         <v>19</v>
       </c>
-      <c r="L104" s="96" t="s">
+      <c r="L104" t="s">
         <v>207</v>
       </c>
-      <c r="M104" s="96" t="s">
+      <c r="M104" t="s">
         <v>204</v>
       </c>
-      <c r="N104" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="O104" s="97">
+      <c r="N104" t="s">
+        <v>182</v>
+      </c>
+      <c r="O104" s="93">
         <v>45811</v>
       </c>
-      <c r="P104" s="96" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q104" s="96">
-        <v>528006</v>
-      </c>
-      <c r="R104" s="96">
-        <v>4976602</v>
-      </c>
-      <c r="S104" s="96" t="s">
+      <c r="P104" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q104">
+        <v>528006</v>
+      </c>
+      <c r="R104">
+        <v>4976602</v>
+      </c>
+      <c r="S104" t="s">
         <v>4</v>
       </c>
-      <c r="V104" s="98"/>
-      <c r="AB104" s="96" t="s">
+      <c r="V104" s="94"/>
+      <c r="AB104" t="s">
         <v>477</v>
       </c>
-      <c r="AG104" s="96" t="s">
+      <c r="AG104" t="s">
         <v>311</v>
       </c>
-      <c r="AH104" s="96" t="s">
+      <c r="AH104" t="s">
         <v>314</v>
       </c>
-      <c r="AI104" s="96" t="s">
+      <c r="AI104" t="s">
         <v>169</v>
       </c>
-      <c r="AJ104" s="96">
+      <c r="AJ104">
         <v>73</v>
       </c>
-      <c r="AM104" s="96" t="s">
+      <c r="AM104" t="s">
         <v>221</v>
       </c>
-      <c r="AQ104" s="96" t="s">
+      <c r="AQ104" t="s">
         <v>475</v>
       </c>
-      <c r="AR104" s="96" t="s">
+      <c r="AR104" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="105" spans="1:44" s="96" customFormat="1">
-      <c r="A105" s="96" t="s">
+    <row r="105" spans="1:44">
+      <c r="A105" t="s">
         <v>266</v>
       </c>
-      <c r="B105" s="96" t="s">
+      <c r="B105" t="s">
         <v>7</v>
       </c>
-      <c r="C105" s="96" t="s">
+      <c r="C105" t="s">
         <v>144</v>
       </c>
-      <c r="D105" s="96" t="s">
+      <c r="D105" t="s">
         <v>149</v>
       </c>
-      <c r="E105" s="96" t="s">
+      <c r="E105" t="s">
         <v>103</v>
       </c>
-      <c r="F105" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="G105" s="97">
+      <c r="F105" t="s">
+        <v>182</v>
+      </c>
+      <c r="G105" s="93">
         <v>45811</v>
       </c>
-      <c r="H105" s="96" t="s">
-        <v>315</v>
-      </c>
-      <c r="I105" s="96">
-        <v>528006</v>
-      </c>
-      <c r="J105" s="96">
-        <v>4976602</v>
-      </c>
-      <c r="K105" s="96">
+      <c r="H105" t="s">
+        <v>315</v>
+      </c>
+      <c r="I105">
+        <v>528006</v>
+      </c>
+      <c r="J105">
+        <v>4976602</v>
+      </c>
+      <c r="K105">
         <v>19</v>
       </c>
-      <c r="L105" s="96" t="s">
+      <c r="L105" t="s">
         <v>207</v>
       </c>
-      <c r="M105" s="96" t="s">
+      <c r="M105" t="s">
         <v>204</v>
       </c>
-      <c r="N105" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="O105" s="97">
+      <c r="N105" t="s">
+        <v>182</v>
+      </c>
+      <c r="O105" s="93">
         <v>45811</v>
       </c>
-      <c r="P105" s="96" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q105" s="96">
-        <v>528006</v>
-      </c>
-      <c r="R105" s="96">
-        <v>4976602</v>
-      </c>
-      <c r="S105" s="96" t="s">
+      <c r="P105" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q105">
+        <v>528006</v>
+      </c>
+      <c r="R105">
+        <v>4976602</v>
+      </c>
+      <c r="S105" t="s">
         <v>82</v>
       </c>
-      <c r="T105" s="96" t="s">
+      <c r="T105" t="s">
         <v>316</v>
       </c>
-      <c r="U105" s="96" t="s">
+      <c r="U105" t="s">
         <v>317</v>
       </c>
-      <c r="V105" s="98" t="s">
+      <c r="V105" s="94" t="s">
         <v>478</v>
       </c>
-      <c r="W105" s="96">
+      <c r="W105">
         <v>848</v>
       </c>
-      <c r="AC105" s="96">
+      <c r="AC105">
         <v>22</v>
       </c>
-      <c r="AD105" s="96">
+      <c r="AD105">
         <v>151.85</v>
       </c>
-      <c r="AE105" s="96">
+      <c r="AE105">
         <v>3</v>
       </c>
-      <c r="AG105" s="96" t="s">
+      <c r="AG105" t="s">
         <v>311</v>
       </c>
-      <c r="AH105" s="96" t="s">
+      <c r="AH105" t="s">
         <v>314</v>
       </c>
-      <c r="AI105" s="96" t="s">
+      <c r="AI105" t="s">
         <v>169</v>
       </c>
-      <c r="AJ105" s="96">
+      <c r="AJ105">
         <v>81</v>
       </c>
-      <c r="AM105" s="96" t="s">
+      <c r="AM105" t="s">
         <v>220</v>
       </c>
-      <c r="AQ105" s="96" t="s">
+      <c r="AQ105" t="s">
         <v>479</v>
       </c>
-      <c r="AR105" s="96" t="s">
+      <c r="AR105" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="106" spans="1:44" s="96" customFormat="1">
-      <c r="A106" s="96" t="s">
+    <row r="106" spans="1:44">
+      <c r="A106" t="s">
         <v>266</v>
       </c>
-      <c r="B106" s="96" t="s">
+      <c r="B106" t="s">
         <v>7</v>
       </c>
-      <c r="C106" s="96" t="s">
+      <c r="C106" t="s">
         <v>144</v>
       </c>
-      <c r="D106" s="96" t="s">
+      <c r="D106" t="s">
         <v>149</v>
       </c>
-      <c r="E106" s="96" t="s">
+      <c r="E106" t="s">
         <v>103</v>
       </c>
-      <c r="F106" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="G106" s="97">
+      <c r="F106" t="s">
+        <v>182</v>
+      </c>
+      <c r="G106" s="93">
         <v>45811</v>
       </c>
-      <c r="H106" s="96" t="s">
-        <v>315</v>
-      </c>
-      <c r="I106" s="96">
-        <v>528006</v>
-      </c>
-      <c r="J106" s="96">
-        <v>4976602</v>
-      </c>
-      <c r="K106" s="96">
+      <c r="H106" t="s">
+        <v>315</v>
+      </c>
+      <c r="I106">
+        <v>528006</v>
+      </c>
+      <c r="J106">
+        <v>4976602</v>
+      </c>
+      <c r="K106">
         <v>19</v>
       </c>
-      <c r="L106" s="96" t="s">
+      <c r="L106" t="s">
         <v>207</v>
       </c>
-      <c r="M106" s="96" t="s">
+      <c r="M106" t="s">
         <v>204</v>
       </c>
-      <c r="N106" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="O106" s="97">
+      <c r="N106" t="s">
+        <v>182</v>
+      </c>
+      <c r="O106" s="93">
         <v>45811</v>
       </c>
-      <c r="P106" s="96" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q106" s="96">
-        <v>528006</v>
-      </c>
-      <c r="R106" s="96">
-        <v>4976602</v>
-      </c>
-      <c r="S106" s="96" t="s">
+      <c r="P106" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q106">
+        <v>528006</v>
+      </c>
+      <c r="R106">
+        <v>4976602</v>
+      </c>
+      <c r="S106" t="s">
         <v>81</v>
       </c>
-      <c r="T106" s="96" t="s">
+      <c r="T106" t="s">
         <v>321</v>
       </c>
-      <c r="U106" s="96" t="s">
+      <c r="U106" t="s">
         <v>322</v>
       </c>
-      <c r="V106" s="98">
+      <c r="V106" s="94">
         <v>1639555</v>
       </c>
-      <c r="W106" s="96">
+      <c r="W106">
         <v>344</v>
       </c>
-      <c r="X106" s="96" t="s">
+      <c r="X106" t="s">
         <v>480</v>
       </c>
-      <c r="AG106" s="96" t="s">
+      <c r="AG106" t="s">
         <v>311</v>
       </c>
-      <c r="AH106" s="96" t="s">
+      <c r="AH106" t="s">
         <v>314</v>
       </c>
-      <c r="AI106" s="96" t="s">
+      <c r="AI106" t="s">
         <v>169</v>
       </c>
-      <c r="AJ106" s="96">
+      <c r="AJ106">
         <v>81</v>
       </c>
-      <c r="AM106" s="96" t="s">
+      <c r="AM106" t="s">
         <v>220</v>
       </c>
-      <c r="AQ106" s="96" t="s">
+      <c r="AQ106" t="s">
         <v>479</v>
       </c>
-      <c r="AR106" s="96" t="s">
+      <c r="AR106" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="107" spans="1:44" s="96" customFormat="1">
-      <c r="A107" s="96" t="s">
+    <row r="107" spans="1:44">
+      <c r="A107" t="s">
         <v>266</v>
       </c>
-      <c r="B107" s="96" t="s">
+      <c r="B107" t="s">
         <v>7</v>
       </c>
-      <c r="C107" s="96" t="s">
+      <c r="C107" t="s">
         <v>144</v>
       </c>
-      <c r="D107" s="96" t="s">
+      <c r="D107" t="s">
         <v>149</v>
       </c>
-      <c r="E107" s="96" t="s">
+      <c r="E107" t="s">
         <v>103</v>
       </c>
-      <c r="F107" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="G107" s="97">
+      <c r="F107" t="s">
+        <v>182</v>
+      </c>
+      <c r="G107" s="93">
         <v>45811</v>
       </c>
-      <c r="H107" s="96" t="s">
-        <v>315</v>
-      </c>
-      <c r="I107" s="96">
-        <v>528006</v>
-      </c>
-      <c r="J107" s="96">
-        <v>4976602</v>
-      </c>
-      <c r="K107" s="96">
+      <c r="H107" t="s">
+        <v>315</v>
+      </c>
+      <c r="I107">
+        <v>528006</v>
+      </c>
+      <c r="J107">
+        <v>4976602</v>
+      </c>
+      <c r="K107">
         <v>19</v>
       </c>
-      <c r="L107" s="96" t="s">
+      <c r="L107" t="s">
         <v>207</v>
       </c>
-      <c r="M107" s="96" t="s">
+      <c r="M107" t="s">
         <v>204</v>
       </c>
-      <c r="N107" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="O107" s="97">
+      <c r="N107" t="s">
+        <v>182</v>
+      </c>
+      <c r="O107" s="93">
         <v>45811</v>
       </c>
-      <c r="P107" s="96" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q107" s="96">
-        <v>528006</v>
-      </c>
-      <c r="R107" s="96">
-        <v>4976602</v>
-      </c>
-      <c r="S107" s="96" t="s">
+      <c r="P107" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q107">
+        <v>528006</v>
+      </c>
+      <c r="R107">
+        <v>4976602</v>
+      </c>
+      <c r="S107" t="s">
         <v>4</v>
       </c>
-      <c r="V107" s="98"/>
-      <c r="AB107" s="96" t="s">
+      <c r="V107" s="94"/>
+      <c r="AB107" t="s">
         <v>481</v>
       </c>
-      <c r="AG107" s="96" t="s">
+      <c r="AG107" t="s">
         <v>311</v>
       </c>
-      <c r="AH107" s="96" t="s">
+      <c r="AH107" t="s">
         <v>314</v>
       </c>
-      <c r="AI107" s="96" t="s">
+      <c r="AI107" t="s">
         <v>169</v>
       </c>
-      <c r="AJ107" s="96">
+      <c r="AJ107">
         <v>81</v>
       </c>
-      <c r="AM107" s="96" t="s">
+      <c r="AM107" t="s">
         <v>220</v>
       </c>
-      <c r="AQ107" s="96" t="s">
+      <c r="AQ107" t="s">
         <v>479</v>
       </c>
-      <c r="AR107" s="96" t="s">
+      <c r="AR107" t="s">
         <v>320</v>
       </c>
     </row>
@@ -13848,563 +13843,563 @@
         <v>320</v>
       </c>
     </row>
-    <row r="117" spans="1:44" s="96" customFormat="1">
-      <c r="A117" s="96" t="s">
+    <row r="117" spans="1:44">
+      <c r="A117" t="s">
         <v>266</v>
       </c>
-      <c r="B117" s="96" t="s">
+      <c r="B117" t="s">
         <v>7</v>
       </c>
-      <c r="C117" s="96" t="s">
+      <c r="C117" t="s">
         <v>144</v>
       </c>
-      <c r="D117" s="96" t="s">
+      <c r="D117" t="s">
         <v>149</v>
       </c>
-      <c r="E117" s="96" t="s">
+      <c r="E117" t="s">
         <v>103</v>
       </c>
-      <c r="F117" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="G117" s="97">
+      <c r="F117" t="s">
+        <v>182</v>
+      </c>
+      <c r="G117" s="93">
         <v>45814</v>
       </c>
-      <c r="H117" s="96" t="s">
-        <v>315</v>
-      </c>
-      <c r="I117" s="96">
-        <v>528006</v>
-      </c>
-      <c r="J117" s="96">
-        <v>4976602</v>
-      </c>
-      <c r="K117" s="96">
+      <c r="H117" t="s">
+        <v>315</v>
+      </c>
+      <c r="I117">
+        <v>528006</v>
+      </c>
+      <c r="J117">
+        <v>4976602</v>
+      </c>
+      <c r="K117">
         <v>19</v>
       </c>
-      <c r="L117" s="96" t="s">
+      <c r="L117" t="s">
         <v>207</v>
       </c>
-      <c r="M117" s="96" t="s">
+      <c r="M117" t="s">
         <v>204</v>
       </c>
-      <c r="N117" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="O117" s="97">
+      <c r="N117" t="s">
+        <v>182</v>
+      </c>
+      <c r="O117" s="93">
         <v>45814</v>
       </c>
-      <c r="P117" s="96" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q117" s="96">
-        <v>528006</v>
-      </c>
-      <c r="R117" s="96">
-        <v>4976602</v>
-      </c>
-      <c r="S117" s="96" t="s">
+      <c r="P117" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q117">
+        <v>528006</v>
+      </c>
+      <c r="R117">
+        <v>4976602</v>
+      </c>
+      <c r="S117" t="s">
         <v>82</v>
       </c>
-      <c r="T117" s="96" t="s">
+      <c r="T117" t="s">
         <v>316</v>
       </c>
-      <c r="U117" s="96" t="s">
+      <c r="U117" t="s">
         <v>317</v>
       </c>
-      <c r="V117" s="98" t="s">
+      <c r="V117" s="94" t="s">
         <v>494</v>
       </c>
-      <c r="W117" s="96">
+      <c r="W117">
         <v>848</v>
       </c>
-      <c r="AC117" s="96">
+      <c r="AC117">
         <v>16</v>
       </c>
-      <c r="AD117" s="96">
+      <c r="AD117">
         <v>151.85</v>
       </c>
-      <c r="AE117" s="96">
+      <c r="AE117">
         <v>3</v>
       </c>
-      <c r="AG117" s="96" t="s">
+      <c r="AG117" t="s">
         <v>311</v>
       </c>
-      <c r="AH117" s="96" t="s">
+      <c r="AH117" t="s">
         <v>314</v>
       </c>
-      <c r="AI117" s="96" t="s">
+      <c r="AI117" t="s">
         <v>170</v>
       </c>
-      <c r="AJ117" s="96">
+      <c r="AJ117">
         <v>74</v>
       </c>
-      <c r="AM117" s="96" t="s">
+      <c r="AM117" t="s">
         <v>220</v>
       </c>
-      <c r="AQ117" s="96" t="s">
+      <c r="AQ117" t="s">
         <v>495</v>
       </c>
-      <c r="AR117" s="96" t="s">
+      <c r="AR117" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="118" spans="1:44" s="96" customFormat="1">
-      <c r="A118" s="96" t="s">
+    <row r="118" spans="1:44">
+      <c r="A118" t="s">
         <v>266</v>
       </c>
-      <c r="B118" s="96" t="s">
+      <c r="B118" t="s">
         <v>7</v>
       </c>
-      <c r="C118" s="96" t="s">
+      <c r="C118" t="s">
         <v>144</v>
       </c>
-      <c r="D118" s="96" t="s">
+      <c r="D118" t="s">
         <v>149</v>
       </c>
-      <c r="E118" s="96" t="s">
+      <c r="E118" t="s">
         <v>103</v>
       </c>
-      <c r="F118" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="G118" s="97">
+      <c r="F118" t="s">
+        <v>182</v>
+      </c>
+      <c r="G118" s="93">
         <v>45814</v>
       </c>
-      <c r="H118" s="96" t="s">
-        <v>315</v>
-      </c>
-      <c r="I118" s="96">
-        <v>528006</v>
-      </c>
-      <c r="J118" s="96">
-        <v>4976602</v>
-      </c>
-      <c r="K118" s="96">
+      <c r="H118" t="s">
+        <v>315</v>
+      </c>
+      <c r="I118">
+        <v>528006</v>
+      </c>
+      <c r="J118">
+        <v>4976602</v>
+      </c>
+      <c r="K118">
         <v>19</v>
       </c>
-      <c r="L118" s="96" t="s">
+      <c r="L118" t="s">
         <v>207</v>
       </c>
-      <c r="M118" s="96" t="s">
+      <c r="M118" t="s">
         <v>204</v>
       </c>
-      <c r="N118" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="O118" s="97">
+      <c r="N118" t="s">
+        <v>182</v>
+      </c>
+      <c r="O118" s="93">
         <v>45814</v>
       </c>
-      <c r="P118" s="96" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q118" s="96">
-        <v>528006</v>
-      </c>
-      <c r="R118" s="96">
-        <v>4976602</v>
-      </c>
-      <c r="S118" s="96" t="s">
+      <c r="P118" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q118">
+        <v>528006</v>
+      </c>
+      <c r="R118">
+        <v>4976602</v>
+      </c>
+      <c r="S118" t="s">
         <v>81</v>
       </c>
-      <c r="T118" s="96" t="s">
+      <c r="T118" t="s">
         <v>321</v>
       </c>
-      <c r="U118" s="96" t="s">
+      <c r="U118" t="s">
         <v>322</v>
       </c>
-      <c r="V118" s="98">
+      <c r="V118" s="94">
         <v>1601683</v>
       </c>
-      <c r="W118" s="96">
+      <c r="W118">
         <v>344</v>
       </c>
-      <c r="X118" s="96" t="s">
+      <c r="X118" t="s">
         <v>492</v>
       </c>
-      <c r="AG118" s="96" t="s">
+      <c r="AG118" t="s">
         <v>311</v>
       </c>
-      <c r="AH118" s="96" t="s">
+      <c r="AH118" t="s">
         <v>314</v>
       </c>
-      <c r="AI118" s="96" t="s">
+      <c r="AI118" t="s">
         <v>170</v>
       </c>
-      <c r="AJ118" s="96">
+      <c r="AJ118">
         <v>74</v>
       </c>
-      <c r="AM118" s="96" t="s">
+      <c r="AM118" t="s">
         <v>220</v>
       </c>
-      <c r="AQ118" s="96" t="s">
+      <c r="AQ118" t="s">
         <v>495</v>
       </c>
-      <c r="AR118" s="96" t="s">
+      <c r="AR118" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="119" spans="1:44" s="96" customFormat="1">
-      <c r="A119" s="96" t="s">
+    <row r="119" spans="1:44">
+      <c r="A119" t="s">
         <v>266</v>
       </c>
-      <c r="B119" s="96" t="s">
+      <c r="B119" t="s">
         <v>7</v>
       </c>
-      <c r="C119" s="96" t="s">
+      <c r="C119" t="s">
         <v>144</v>
       </c>
-      <c r="D119" s="96" t="s">
+      <c r="D119" t="s">
         <v>149</v>
       </c>
-      <c r="E119" s="96" t="s">
+      <c r="E119" t="s">
         <v>103</v>
       </c>
-      <c r="F119" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="G119" s="97">
+      <c r="F119" t="s">
+        <v>182</v>
+      </c>
+      <c r="G119" s="93">
         <v>45814</v>
       </c>
-      <c r="H119" s="96" t="s">
-        <v>315</v>
-      </c>
-      <c r="I119" s="96">
-        <v>528006</v>
-      </c>
-      <c r="J119" s="96">
-        <v>4976602</v>
-      </c>
-      <c r="K119" s="96">
+      <c r="H119" t="s">
+        <v>315</v>
+      </c>
+      <c r="I119">
+        <v>528006</v>
+      </c>
+      <c r="J119">
+        <v>4976602</v>
+      </c>
+      <c r="K119">
         <v>19</v>
       </c>
-      <c r="L119" s="96" t="s">
+      <c r="L119" t="s">
         <v>207</v>
       </c>
-      <c r="M119" s="96" t="s">
+      <c r="M119" t="s">
         <v>204</v>
       </c>
-      <c r="N119" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="O119" s="97">
+      <c r="N119" t="s">
+        <v>182</v>
+      </c>
+      <c r="O119" s="93">
         <v>45814</v>
       </c>
-      <c r="P119" s="96" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q119" s="96">
-        <v>528006</v>
-      </c>
-      <c r="R119" s="96">
-        <v>4976602</v>
-      </c>
-      <c r="S119" s="96" t="s">
+      <c r="P119" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q119">
+        <v>528006</v>
+      </c>
+      <c r="R119">
+        <v>4976602</v>
+      </c>
+      <c r="S119" t="s">
         <v>4</v>
       </c>
-      <c r="V119" s="98"/>
-      <c r="AB119" s="96" t="s">
+      <c r="V119" s="94"/>
+      <c r="AB119" t="s">
         <v>497</v>
       </c>
-      <c r="AG119" s="96" t="s">
+      <c r="AG119" t="s">
         <v>311</v>
       </c>
-      <c r="AH119" s="96" t="s">
+      <c r="AH119" t="s">
         <v>314</v>
       </c>
-      <c r="AI119" s="96" t="s">
+      <c r="AI119" t="s">
         <v>169</v>
       </c>
-      <c r="AJ119" s="96">
+      <c r="AJ119">
         <v>74</v>
       </c>
-      <c r="AM119" s="96" t="s">
+      <c r="AM119" t="s">
         <v>220</v>
       </c>
-      <c r="AQ119" s="96" t="s">
+      <c r="AQ119" t="s">
         <v>495</v>
       </c>
-      <c r="AR119" s="96" t="s">
+      <c r="AR119" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="120" spans="1:44" s="96" customFormat="1">
-      <c r="A120" s="96" t="s">
+    <row r="120" spans="1:44">
+      <c r="A120" t="s">
         <v>266</v>
       </c>
-      <c r="B120" s="96" t="s">
+      <c r="B120" t="s">
         <v>7</v>
       </c>
-      <c r="C120" s="96" t="s">
+      <c r="C120" t="s">
         <v>144</v>
       </c>
-      <c r="D120" s="96" t="s">
+      <c r="D120" t="s">
         <v>149</v>
       </c>
-      <c r="E120" s="96" t="s">
+      <c r="E120" t="s">
         <v>103</v>
       </c>
-      <c r="F120" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="G120" s="97">
+      <c r="F120" t="s">
+        <v>182</v>
+      </c>
+      <c r="G120" s="93">
         <v>45814</v>
       </c>
-      <c r="H120" s="96" t="s">
-        <v>315</v>
-      </c>
-      <c r="I120" s="96">
-        <v>528006</v>
-      </c>
-      <c r="J120" s="96">
-        <v>4976602</v>
-      </c>
-      <c r="K120" s="96">
+      <c r="H120" t="s">
+        <v>315</v>
+      </c>
+      <c r="I120">
+        <v>528006</v>
+      </c>
+      <c r="J120">
+        <v>4976602</v>
+      </c>
+      <c r="K120">
         <v>19</v>
       </c>
-      <c r="L120" s="96" t="s">
+      <c r="L120" t="s">
         <v>207</v>
       </c>
-      <c r="M120" s="96" t="s">
+      <c r="M120" t="s">
         <v>204</v>
       </c>
-      <c r="N120" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="O120" s="97">
+      <c r="N120" t="s">
+        <v>182</v>
+      </c>
+      <c r="O120" s="93">
         <v>45814</v>
       </c>
-      <c r="P120" s="96" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q120" s="96">
-        <v>528006</v>
-      </c>
-      <c r="R120" s="96">
-        <v>4976602</v>
-      </c>
-      <c r="S120" s="96" t="s">
+      <c r="P120" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q120">
+        <v>528006</v>
+      </c>
+      <c r="R120">
+        <v>4976602</v>
+      </c>
+      <c r="S120" t="s">
         <v>82</v>
       </c>
-      <c r="T120" s="96" t="s">
+      <c r="T120" t="s">
         <v>316</v>
       </c>
-      <c r="U120" s="96" t="s">
+      <c r="U120" t="s">
         <v>317</v>
       </c>
-      <c r="V120" s="98" t="s">
+      <c r="V120" s="94" t="s">
         <v>498</v>
       </c>
-      <c r="W120" s="96">
+      <c r="W120">
         <v>848</v>
       </c>
-      <c r="AC120" s="96">
+      <c r="AC120">
         <v>63</v>
       </c>
-      <c r="AD120" s="96">
+      <c r="AD120">
         <v>152.01</v>
       </c>
-      <c r="AE120" s="96">
+      <c r="AE120">
         <v>3</v>
       </c>
-      <c r="AG120" s="96" t="s">
+      <c r="AG120" t="s">
         <v>311</v>
       </c>
-      <c r="AH120" s="96" t="s">
+      <c r="AH120" t="s">
         <v>314</v>
       </c>
-      <c r="AI120" s="96" t="s">
+      <c r="AI120" t="s">
         <v>169</v>
       </c>
-      <c r="AJ120" s="96">
+      <c r="AJ120">
         <v>72</v>
       </c>
-      <c r="AM120" s="96" t="s">
+      <c r="AM120" t="s">
         <v>221</v>
       </c>
-      <c r="AQ120" s="96" t="s">
+      <c r="AQ120" t="s">
         <v>499</v>
       </c>
-      <c r="AR120" s="96" t="s">
+      <c r="AR120" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="121" spans="1:44" s="96" customFormat="1">
-      <c r="A121" s="96" t="s">
+    <row r="121" spans="1:44">
+      <c r="A121" t="s">
         <v>266</v>
       </c>
-      <c r="B121" s="96" t="s">
+      <c r="B121" t="s">
         <v>7</v>
       </c>
-      <c r="C121" s="96" t="s">
+      <c r="C121" t="s">
         <v>144</v>
       </c>
-      <c r="D121" s="96" t="s">
+      <c r="D121" t="s">
         <v>149</v>
       </c>
-      <c r="E121" s="96" t="s">
+      <c r="E121" t="s">
         <v>103</v>
       </c>
-      <c r="F121" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="G121" s="97">
+      <c r="F121" t="s">
+        <v>182</v>
+      </c>
+      <c r="G121" s="93">
         <v>45814</v>
       </c>
-      <c r="H121" s="96" t="s">
-        <v>315</v>
-      </c>
-      <c r="I121" s="96">
-        <v>528006</v>
-      </c>
-      <c r="J121" s="96">
-        <v>4976602</v>
-      </c>
-      <c r="K121" s="96">
+      <c r="H121" t="s">
+        <v>315</v>
+      </c>
+      <c r="I121">
+        <v>528006</v>
+      </c>
+      <c r="J121">
+        <v>4976602</v>
+      </c>
+      <c r="K121">
         <v>19</v>
       </c>
-      <c r="L121" s="96" t="s">
+      <c r="L121" t="s">
         <v>207</v>
       </c>
-      <c r="M121" s="96" t="s">
+      <c r="M121" t="s">
         <v>204</v>
       </c>
-      <c r="N121" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="O121" s="97">
+      <c r="N121" t="s">
+        <v>182</v>
+      </c>
+      <c r="O121" s="93">
         <v>45814</v>
       </c>
-      <c r="P121" s="96" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q121" s="96">
-        <v>528006</v>
-      </c>
-      <c r="R121" s="96">
-        <v>4976602</v>
-      </c>
-      <c r="S121" s="96" t="s">
+      <c r="P121" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q121">
+        <v>528006</v>
+      </c>
+      <c r="R121">
+        <v>4976602</v>
+      </c>
+      <c r="S121" t="s">
         <v>81</v>
       </c>
-      <c r="T121" s="96" t="s">
+      <c r="T121" t="s">
         <v>321</v>
       </c>
-      <c r="U121" s="96" t="s">
+      <c r="U121" t="s">
         <v>322</v>
       </c>
-      <c r="V121" s="98">
+      <c r="V121" s="94">
         <v>1601670</v>
       </c>
-      <c r="W121" s="96">
+      <c r="W121">
         <v>344</v>
       </c>
-      <c r="X121" s="96" t="s">
+      <c r="X121" t="s">
         <v>496</v>
       </c>
-      <c r="AG121" s="96" t="s">
+      <c r="AG121" t="s">
         <v>311</v>
       </c>
-      <c r="AH121" s="96" t="s">
+      <c r="AH121" t="s">
         <v>314</v>
       </c>
-      <c r="AI121" s="96" t="s">
+      <c r="AI121" t="s">
         <v>169</v>
       </c>
-      <c r="AJ121" s="96">
+      <c r="AJ121">
         <v>72</v>
       </c>
-      <c r="AM121" s="96" t="s">
+      <c r="AM121" t="s">
         <v>221</v>
       </c>
-      <c r="AQ121" s="96" t="s">
+      <c r="AQ121" t="s">
         <v>499</v>
       </c>
-      <c r="AR121" s="96" t="s">
+      <c r="AR121" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="122" spans="1:44" s="96" customFormat="1">
-      <c r="A122" s="96" t="s">
+    <row r="122" spans="1:44">
+      <c r="A122" t="s">
         <v>266</v>
       </c>
-      <c r="B122" s="96" t="s">
+      <c r="B122" t="s">
         <v>7</v>
       </c>
-      <c r="C122" s="96" t="s">
+      <c r="C122" t="s">
         <v>144</v>
       </c>
-      <c r="D122" s="96" t="s">
+      <c r="D122" t="s">
         <v>149</v>
       </c>
-      <c r="E122" s="96" t="s">
+      <c r="E122" t="s">
         <v>103</v>
       </c>
-      <c r="F122" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="G122" s="97">
+      <c r="F122" t="s">
+        <v>182</v>
+      </c>
+      <c r="G122" s="93">
         <v>45814</v>
       </c>
-      <c r="H122" s="96" t="s">
-        <v>315</v>
-      </c>
-      <c r="I122" s="96">
-        <v>528006</v>
-      </c>
-      <c r="J122" s="96">
-        <v>4976602</v>
-      </c>
-      <c r="K122" s="96">
+      <c r="H122" t="s">
+        <v>315</v>
+      </c>
+      <c r="I122">
+        <v>528006</v>
+      </c>
+      <c r="J122">
+        <v>4976602</v>
+      </c>
+      <c r="K122">
         <v>19</v>
       </c>
-      <c r="L122" s="96" t="s">
+      <c r="L122" t="s">
         <v>207</v>
       </c>
-      <c r="M122" s="96" t="s">
+      <c r="M122" t="s">
         <v>204</v>
       </c>
-      <c r="N122" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="O122" s="97">
+      <c r="N122" t="s">
+        <v>182</v>
+      </c>
+      <c r="O122" s="93">
         <v>45814</v>
       </c>
-      <c r="P122" s="96" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q122" s="96">
-        <v>528006</v>
-      </c>
-      <c r="R122" s="96">
-        <v>4976602</v>
-      </c>
-      <c r="S122" s="96" t="s">
+      <c r="P122" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q122">
+        <v>528006</v>
+      </c>
+      <c r="R122">
+        <v>4976602</v>
+      </c>
+      <c r="S122" t="s">
         <v>4</v>
       </c>
-      <c r="V122" s="98"/>
-      <c r="AB122" s="96" t="s">
+      <c r="V122" s="94"/>
+      <c r="AB122" t="s">
         <v>500</v>
       </c>
-      <c r="AG122" s="96" t="s">
+      <c r="AG122" t="s">
         <v>311</v>
       </c>
-      <c r="AH122" s="96" t="s">
+      <c r="AH122" t="s">
         <v>314</v>
       </c>
-      <c r="AI122" s="96" t="s">
+      <c r="AI122" t="s">
         <v>169</v>
       </c>
-      <c r="AJ122" s="96">
+      <c r="AJ122">
         <v>72</v>
       </c>
-      <c r="AM122" s="96" t="s">
+      <c r="AM122" t="s">
         <v>221</v>
       </c>
-      <c r="AQ122" s="96" t="s">
+      <c r="AQ122" t="s">
         <v>499</v>
       </c>
-      <c r="AR122" s="96" t="s">
+      <c r="AR122" t="s">
         <v>320</v>
       </c>
     </row>
@@ -22071,57 +22066,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B11B871-A686-440D-B472-B5E3630A47C8}">
   <dimension ref="A1:AU9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AM1" sqref="AM1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.453125" style="70" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" style="70" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.1796875" customWidth="1"/>
-    <col min="20" max="20" width="18.26953125" customWidth="1"/>
-    <col min="21" max="21" width="19.26953125" customWidth="1"/>
+    <col min="19" max="19" width="26.140625" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" customWidth="1"/>
+    <col min="21" max="21" width="19.28515625" customWidth="1"/>
     <col min="22" max="22" width="29" customWidth="1"/>
-    <col min="23" max="24" width="18.26953125" customWidth="1"/>
-    <col min="25" max="25" width="19.26953125" customWidth="1"/>
-    <col min="26" max="26" width="22.1796875" customWidth="1"/>
+    <col min="23" max="24" width="18.28515625" customWidth="1"/>
+    <col min="25" max="25" width="19.28515625" customWidth="1"/>
+    <col min="26" max="26" width="22.140625" customWidth="1"/>
     <col min="27" max="27" width="26" customWidth="1"/>
-    <col min="28" max="28" width="18.81640625" customWidth="1"/>
-    <col min="29" max="29" width="27.1796875" customWidth="1"/>
-    <col min="30" max="30" width="28.453125" customWidth="1"/>
-    <col min="31" max="31" width="29.453125" customWidth="1"/>
-    <col min="32" max="32" width="9.453125" customWidth="1"/>
-    <col min="33" max="33" width="7.7265625" customWidth="1"/>
+    <col min="28" max="28" width="18.85546875" customWidth="1"/>
+    <col min="29" max="29" width="27.140625" customWidth="1"/>
+    <col min="30" max="30" width="28.42578125" customWidth="1"/>
+    <col min="31" max="31" width="29.42578125" customWidth="1"/>
+    <col min="32" max="32" width="9.42578125" customWidth="1"/>
+    <col min="33" max="33" width="7.7109375" customWidth="1"/>
     <col min="34" max="34" width="6" customWidth="1"/>
-    <col min="35" max="35" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="16" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.453125" customWidth="1"/>
-    <col min="39" max="39" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.42578125" customWidth="1"/>
+    <col min="39" max="39" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="23" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="17.1796875" customWidth="1"/>
-    <col min="43" max="43" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="17.140625" customWidth="1"/>
+    <col min="43" max="43" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="15" thickBot="1">
+    <row r="1" spans="1:47" ht="15.75" thickBot="1">
       <c r="A1" s="52" t="s">
         <v>262</v>
       </c>
@@ -22408,32 +22403,32 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.453125" style="70" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.26953125" customWidth="1"/>
-    <col min="10" max="11" width="19.26953125" customWidth="1"/>
-    <col min="12" max="12" width="14.453125" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="70" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="10" max="11" width="19.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.453125" customWidth="1"/>
-    <col min="21" max="21" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" customWidth="1"/>
+    <col min="21" max="21" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="23" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.1796875" customWidth="1"/>
-    <col min="25" max="25" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.140625" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -22582,36 +22577,36 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="31.453125" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" style="74" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="74" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="74" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="74" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" style="74" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="67.453125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="74" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="74" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="67.42578125" style="5" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="36.26953125" customWidth="1"/>
+    <col min="9" max="9" width="36.28515625" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
-    <col min="12" max="12" width="23.7265625" customWidth="1"/>
-    <col min="13" max="13" width="29.453125" customWidth="1"/>
-    <col min="14" max="14" width="21.7265625" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" customWidth="1"/>
+    <col min="13" max="13" width="29.42578125" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>224</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="102" t="s">
         <v>261</v>
       </c>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
       <c r="G1" s="9"/>
       <c r="H1" s="4" t="s">
         <v>39</v>
@@ -22628,7 +22623,7 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="103" t="s">
         <v>227</v>
       </c>
       <c r="B2" s="52" t="s">
@@ -22660,7 +22655,7 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="106"/>
+      <c r="A3" s="103"/>
       <c r="B3" s="53" t="s">
         <v>5</v>
       </c>
@@ -22686,7 +22681,7 @@
       <c r="J3" s="44"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="106"/>
+      <c r="A4" s="103"/>
       <c r="B4" s="53" t="s">
         <v>199</v>
       </c>
@@ -22713,8 +22708,8 @@
       </c>
       <c r="J4" s="44"/>
     </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1">
-      <c r="A5" s="106"/>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A5" s="103"/>
       <c r="B5" s="54" t="s">
         <v>18</v>
       </c>
@@ -22742,8 +22737,8 @@
       <c r="J5" s="46"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1">
-      <c r="A6" s="106"/>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A6" s="103"/>
       <c r="B6" s="53" t="s">
         <v>57</v>
       </c>
@@ -22771,7 +22766,7 @@
       <c r="J6" s="34"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="103" t="s">
         <v>225</v>
       </c>
       <c r="B7" s="55" t="s">
@@ -22804,7 +22799,7 @@
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="106"/>
+      <c r="A8" s="103"/>
       <c r="B8" s="56" t="s">
         <v>210</v>
       </c>
@@ -22834,8 +22829,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1">
-      <c r="A9" s="106"/>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A9" s="103"/>
       <c r="B9" s="56" t="s">
         <v>211</v>
       </c>
@@ -22863,7 +22858,7 @@
       <c r="J9" s="44"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="106"/>
+      <c r="A10" s="103"/>
       <c r="B10" s="56" t="s">
         <v>212</v>
       </c>
@@ -22891,7 +22886,7 @@
       <c r="J10" s="44"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="106"/>
+      <c r="A11" s="103"/>
       <c r="B11" s="56" t="s">
         <v>213</v>
       </c>
@@ -22919,7 +22914,7 @@
       <c r="J11" s="44"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="106"/>
+      <c r="A12" s="103"/>
       <c r="B12" s="57" t="s">
         <v>214</v>
       </c>
@@ -22946,8 +22941,8 @@
       </c>
       <c r="J12" s="38"/>
     </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1">
-      <c r="A13" s="106"/>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A13" s="103"/>
       <c r="B13" s="58" t="s">
         <v>215</v>
       </c>
@@ -22974,8 +22969,8 @@
       </c>
       <c r="J13" s="48"/>
     </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1">
-      <c r="A14" s="106" t="s">
+    <row r="14" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A14" s="103" t="s">
         <v>226</v>
       </c>
       <c r="B14" s="59" t="s">
@@ -23002,8 +22997,8 @@
       </c>
       <c r="J14" s="43"/>
     </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1">
-      <c r="A15" s="106"/>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A15" s="103"/>
       <c r="B15" s="60" t="s">
         <v>117</v>
       </c>
@@ -23030,8 +23025,8 @@
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1">
-      <c r="A16" s="106"/>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A16" s="103"/>
       <c r="B16" s="60" t="s">
         <v>111</v>
       </c>
@@ -23058,8 +23053,8 @@
         <v>232</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" thickBot="1">
-      <c r="A17" s="106"/>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A17" s="103"/>
       <c r="B17" s="60" t="s">
         <v>118</v>
       </c>
@@ -23086,8 +23081,8 @@
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" thickBot="1">
-      <c r="A18" s="106"/>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A18" s="103"/>
       <c r="B18" s="60" t="s">
         <v>21</v>
       </c>
@@ -23117,8 +23112,8 @@
         <v>245</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" thickBot="1">
-      <c r="A19" s="106"/>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A19" s="103"/>
       <c r="B19" s="61" t="s">
         <v>22</v>
       </c>
@@ -23149,7 +23144,7 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="107" t="s">
+      <c r="A20" s="104" t="s">
         <v>228</v>
       </c>
       <c r="B20" s="62" t="s">
@@ -23181,7 +23176,7 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="107"/>
+      <c r="A21" s="104"/>
       <c r="B21" s="62" t="s">
         <v>276</v>
       </c>
@@ -23210,7 +23205,7 @@
       <c r="K21" s="79"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="107"/>
+      <c r="A22" s="104"/>
       <c r="B22" s="62" t="s">
         <v>277</v>
       </c>
@@ -23239,7 +23234,7 @@
       <c r="K22" s="79"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="107"/>
+      <c r="A23" s="104"/>
       <c r="B23" s="62" t="s">
         <v>278</v>
       </c>
@@ -23265,7 +23260,7 @@
       <c r="J23" s="38"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="107"/>
+      <c r="A24" s="104"/>
       <c r="B24" s="62" t="s">
         <v>297</v>
       </c>
@@ -23293,7 +23288,7 @@
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="107"/>
+      <c r="A25" s="104"/>
       <c r="B25" s="63" t="s">
         <v>121</v>
       </c>
@@ -23324,7 +23319,7 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="107"/>
+      <c r="A26" s="104"/>
       <c r="B26" s="63" t="s">
         <v>187</v>
       </c>
@@ -23352,7 +23347,7 @@
       <c r="J26" s="34"/>
     </row>
     <row r="27" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A27" s="107"/>
+      <c r="A27" s="104"/>
       <c r="B27" s="63" t="s">
         <v>272</v>
       </c>
@@ -23383,7 +23378,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A28" s="107"/>
+      <c r="A28" s="104"/>
       <c r="B28" s="63" t="s">
         <v>274</v>
       </c>
@@ -23414,7 +23409,7 @@
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="107"/>
+      <c r="A29" s="104"/>
       <c r="B29" s="63" t="s">
         <v>120</v>
       </c>
@@ -23442,7 +23437,7 @@
       <c r="J29" s="34"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="107"/>
+      <c r="A30" s="104"/>
       <c r="B30" s="64" t="s">
         <v>122</v>
       </c>
@@ -23470,7 +23465,7 @@
       <c r="J30" s="34"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="107"/>
+      <c r="A31" s="104"/>
       <c r="B31" s="63" t="s">
         <v>124</v>
       </c>
@@ -23498,7 +23493,7 @@
       <c r="J31" s="34"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="107"/>
+      <c r="A32" s="104"/>
       <c r="B32" s="63" t="s">
         <v>123</v>
       </c>
@@ -23526,7 +23521,7 @@
       <c r="J32" s="34"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="107"/>
+      <c r="A33" s="104"/>
       <c r="B33" s="63" t="s">
         <v>285</v>
       </c>
@@ -23554,7 +23549,7 @@
       <c r="J33" s="34"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="107"/>
+      <c r="A34" s="104"/>
       <c r="B34" s="65" t="s">
         <v>24</v>
       </c>
@@ -23582,7 +23577,7 @@
       <c r="J34" s="34"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="107"/>
+      <c r="A35" s="104"/>
       <c r="B35" s="63" t="s">
         <v>33</v>
       </c>
@@ -23608,7 +23603,7 @@
       <c r="J35" s="34"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="107"/>
+      <c r="A36" s="104"/>
       <c r="B36" s="63" t="s">
         <v>34</v>
       </c>
@@ -23634,7 +23629,7 @@
       <c r="J36" s="34"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="107"/>
+      <c r="A37" s="104"/>
       <c r="B37" s="63" t="s">
         <v>25</v>
       </c>
@@ -23660,7 +23655,7 @@
       <c r="J37" s="34"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="102" t="s">
+      <c r="A38" s="99" t="s">
         <v>304</v>
       </c>
       <c r="B38" s="87" t="s">
@@ -23679,12 +23674,12 @@
       <c r="G38" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="K38" s="101" t="s">
+      <c r="K38" s="98" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="103"/>
+      <c r="A39" s="100"/>
       <c r="B39" s="87" t="s">
         <v>126</v>
       </c>
@@ -23701,10 +23696,10 @@
       <c r="G39" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="K39" s="101"/>
+      <c r="K39" s="98"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="103"/>
+      <c r="A40" s="100"/>
       <c r="B40" s="87" t="s">
         <v>127</v>
       </c>
@@ -23721,10 +23716,10 @@
       <c r="G40" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="K40" s="101"/>
+      <c r="K40" s="98"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="103"/>
+      <c r="A41" s="100"/>
       <c r="B41" s="87" t="s">
         <v>128</v>
       </c>
@@ -23741,10 +23736,10 @@
       <c r="G41" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="K41" s="101"/>
+      <c r="K41" s="98"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="104"/>
+      <c r="A42" s="101"/>
       <c r="B42" s="88" t="s">
         <v>129</v>
       </c>
@@ -23761,10 +23756,10 @@
       <c r="G42" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="K42" s="101"/>
+      <c r="K42" s="98"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="106" t="s">
+      <c r="A43" s="103" t="s">
         <v>229</v>
       </c>
       <c r="B43" s="66" t="s">
@@ -23794,7 +23789,7 @@
       <c r="J43" s="34"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="106"/>
+      <c r="A44" s="103"/>
       <c r="B44" s="66" t="s">
         <v>188</v>
       </c>
@@ -23822,7 +23817,7 @@
       <c r="J44" s="34"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="106"/>
+      <c r="A45" s="103"/>
       <c r="B45" s="66" t="s">
         <v>132</v>
       </c>
@@ -23850,7 +23845,7 @@
       <c r="J45" s="34"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="106"/>
+      <c r="A46" s="103"/>
       <c r="B46" s="66" t="s">
         <v>29</v>
       </c>
@@ -23876,7 +23871,7 @@
       <c r="J46" s="34"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="106"/>
+      <c r="A47" s="103"/>
       <c r="B47" s="66" t="s">
         <v>247</v>
       </c>
@@ -23906,7 +23901,7 @@
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="106"/>
+      <c r="A48" s="103"/>
       <c r="B48" s="66" t="s">
         <v>248</v>
       </c>
@@ -23936,7 +23931,7 @@
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="106"/>
+      <c r="A49" s="103"/>
       <c r="B49" s="66" t="s">
         <v>249</v>
       </c>
@@ -23966,7 +23961,7 @@
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="106" t="s">
+      <c r="A50" s="103" t="s">
         <v>230</v>
       </c>
       <c r="B50" s="67" t="s">
@@ -23996,7 +23991,7 @@
       <c r="J50" s="34"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="106"/>
+      <c r="A51" s="103"/>
       <c r="B51" s="67" t="s">
         <v>222</v>
       </c>
@@ -24054,24 +24049,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" customWidth="1"/>
-    <col min="4" max="4" width="24.26953125" customWidth="1"/>
-    <col min="5" max="6" width="12.7265625" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="16.7265625" customWidth="1"/>
-    <col min="10" max="14" width="18.453125" customWidth="1"/>
-    <col min="15" max="15" width="14.7265625" customWidth="1"/>
-    <col min="16" max="17" width="17.453125" customWidth="1"/>
-    <col min="18" max="18" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.1796875" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="10" max="14" width="18.42578125" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" customWidth="1"/>
+    <col min="16" max="17" width="17.42578125" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1">
@@ -24180,7 +24175,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="19.5" customHeight="1">
+    <row r="3" spans="1:21" ht="30">
       <c r="A3" s="7" t="s">
         <v>35</v>
       </c>
@@ -24289,7 +24284,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="29">
+    <row r="5" spans="1:21" ht="30">
       <c r="A5" s="7" t="s">
         <v>136</v>
       </c>
@@ -24541,12 +24536,12 @@
       <selection activeCell="A37" sqref="A33:XFD37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="59.453125" customWidth="1"/>
-    <col min="2" max="2" width="57.1796875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="59.42578125" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -24652,7 +24647,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1">
       <c r="A9" t="s">
         <v>119</v>
       </c>
@@ -24694,7 +24689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1">
       <c r="A12" s="16" t="s">
         <v>2</v>
       </c>
@@ -24736,7 +24731,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1">
       <c r="A15" t="s">
         <v>154</v>
       </c>
@@ -24758,7 +24753,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1">
+    <row r="17" spans="1:9" ht="15.75" thickBot="1">
       <c r="A17" s="16" t="s">
         <v>111</v>
       </c>
@@ -24797,7 +24792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1">
       <c r="A20" s="20" t="s">
         <v>22</v>
       </c>
@@ -24844,7 +24839,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1">
+    <row r="24" spans="1:9" ht="15.75" thickBot="1">
       <c r="A24" t="s">
         <v>120</v>
       </c>
@@ -24877,7 +24872,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" thickBot="1">
+    <row r="27" spans="1:9" ht="15.75" thickBot="1">
       <c r="A27" s="20" t="s">
         <v>123</v>
       </c>
